--- a/PL/teams/[2] Segunda entrega/[9] Novena fase/Ingresos_costes.xlsx
+++ b/PL/teams/[2] Segunda entrega/[9] Novena fase/Ingresos_costes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo.sharepoint.com/sites/GITINProyectosPL03/Documentos compartidos/General/[2] Segunda entrega/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo.sharepoint.com/sites/GITINProyectosPL03/Documentos compartidos/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1119" documentId="13_ncr:1_{46B1BAF7-689A-4853-B3D2-A94D3BCEED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AFBF546-7929-4EFB-B3F7-1E3F8C9214BB}"/>
+  <xr:revisionPtr revIDLastSave="1124" documentId="13_ncr:1_{46B1BAF7-689A-4853-B3D2-A94D3BCEED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB1921C-0BDE-42B7-8EEB-E67602B21D2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4361,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D90DA9-6A8E-4FCC-9BFC-C4F5AFAC79EB}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4381,7 +4381,8 @@
     <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4948,7 +4949,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="D9">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E9" s="75">
         <f>+F9-F8</f>
@@ -5926,6 +5927,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eac238aecdab541038108c888c49e31e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efe92b1ac631852ba9ae12b231089a75" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
@@ -6148,34 +6169,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27002EE9-020F-4C8A-BD4A-A4DFD9505814}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B76B673B-D3A6-4140-BCA7-BB68D279E5E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B76B673B-D3A6-4140-BCA7-BB68D279E5E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2ADB75-6814-4B16-9DD3-A644CE2D97A4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2ADB75-6814-4B16-9DD3-A644CE2D97A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27002EE9-020F-4C8A-BD4A-A4DFD9505814}"/>
 </file>
--- a/PL/teams/[2] Segunda entrega/[9] Novena fase/Ingresos_costes.xlsx
+++ b/PL/teams/[2] Segunda entrega/[9] Novena fase/Ingresos_costes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo.sharepoint.com/sites/GITINProyectosPL03/Documentos compartidos/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1124" documentId="13_ncr:1_{46B1BAF7-689A-4853-B3D2-A94D3BCEED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB1921C-0BDE-42B7-8EEB-E67602B21D2C}"/>
+  <xr:revisionPtr revIDLastSave="1126" documentId="13_ncr:1_{46B1BAF7-689A-4853-B3D2-A94D3BCEED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4D21CAB-3B78-4363-BDA5-89D672E4868B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
@@ -1231,7 +1231,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
@@ -1267,18 +1267,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1319,7 +1319,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1344,7 +1344,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1438,9 +1438,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1453,13 +1450,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1471,12 +1465,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1919,7 +1919,7 @@
   <dimension ref="C5:G30"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2238,7 +2238,7 @@
   <dimension ref="B1:Q58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4361,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D90DA9-6A8E-4FCC-9BFC-C4F5AFAC79EB}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4387,42 +4387,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="D1" s="114" t="s">
+      <c r="B1" s="112"/>
+      <c r="D1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
       <c r="L1" s="116"/>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="118" t="s">
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="114"/>
+      <c r="U1" s="113"/>
       <c r="V1" s="116"/>
-      <c r="W1" s="114" t="s">
+      <c r="W1" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="111" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="120" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4433,50 +4433,50 @@
       <c r="B2" s="51">
         <v>801226</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="118" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114" t="s">
+      <c r="F2" s="113"/>
+      <c r="G2" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
       <c r="L2" s="116"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="114" t="s">
+      <c r="N2" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="118" t="s">
+      <c r="T2" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="114" t="s">
+      <c r="U2" s="113" t="s">
         <v>99</v>
       </c>
       <c r="V2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="114" t="s">
+      <c r="W2" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="114" t="s">
+      <c r="X2" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="111"/>
+      <c r="Y2" s="120"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="33" t="s">
@@ -4485,44 +4485,44 @@
       <c r="B3" s="50">
         <v>0.8</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="118" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="114"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="116"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="113"/>
+      <c r="N3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="114" t="s">
+      <c r="P3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="114" t="s">
+      <c r="Q3" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="114"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="113"/>
       <c r="V3" s="116"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="111"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="33" t="s">
@@ -4531,9 +4531,9 @@
       <c r="B4" s="50">
         <v>0.15</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="115"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="78" t="s">
         <v>4</v>
       </c>
@@ -4552,19 +4552,19 @@
       <c r="L4" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="111"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="120"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="33" t="s">
@@ -5037,10 +5037,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="113"/>
+      <c r="B10" s="112"/>
       <c r="D10" s="82">
         <v>5</v>
       </c>
@@ -5623,10 +5623,10 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="112"/>
       <c r="V19" s="81"/>
     </row>
     <row r="20" spans="1:22">
@@ -5672,16 +5672,16 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="113"/>
+      <c r="B26" s="112"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="121"/>
+      <c r="B27" s="119"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="47" t="s">
@@ -5719,10 +5719,10 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="119"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="47" t="s">
@@ -5734,10 +5734,10 @@
       <c r="R33" s="81"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="121"/>
+      <c r="B34" s="119"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="47" t="s">
@@ -5757,10 +5757,10 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="112"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="47" t="s">
@@ -5796,10 +5796,10 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="113"/>
+      <c r="B44" s="112"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="47" t="s">
@@ -5828,10 +5828,10 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="113"/>
+      <c r="B49" s="112"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="47" t="s">
@@ -5842,10 +5842,10 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="113"/>
+      <c r="B52" s="112"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="47" t="s">
@@ -5875,26 +5875,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A44:B44"/>
     <mergeCell ref="Y1:Y4"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="U2:U4"/>
@@ -5911,6 +5891,26 @@
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <conditionalFormatting sqref="W2:X2 W1 W5:X1048576">
     <cfRule type="colorScale" priority="1">
@@ -5927,26 +5927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eac238aecdab541038108c888c49e31e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efe92b1ac631852ba9ae12b231089a75" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
@@ -6169,8 +6149,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B76B673B-D3A6-4140-BCA7-BB68D279E5E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27002EE9-020F-4C8A-BD4A-A4DFD9505814}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6178,5 +6178,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27002EE9-020F-4C8A-BD4A-A4DFD9505814}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B76B673B-D3A6-4140-BCA7-BB68D279E5E5}"/>
 </file>